--- a/downloaded_files/CMPS118_Tutorial-35663.xlsx
+++ b/downloaded_files/CMPS118_Tutorial-35663.xlsx
@@ -42,15 +42,6 @@
     <x:t>Ahmed Mohamed Abdullah Shebl</x:t>
   </x:si>
   <x:si>
-    <x:t>1230158</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ادهم عادل سيد محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Adham Adel Said Muhamed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240036</x:t>
   </x:si>
   <x:si>
@@ -60,15 +51,6 @@
     <x:t>berty samir tawadros</x:t>
   </x:si>
   <x:si>
-    <x:t>1240040</x:t>
-  </x:si>
-  <x:si>
-    <x:t>بيتر اشعياء شحاته فهمي يونان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Peter Asheiaa Shehata Fahmi Younan</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240043</x:t>
   </x:si>
   <x:si>
@@ -184,6 +166,24 @@
   </x:si>
   <x:si>
     <x:t>Amr Mohamed Abdulsalam Aboseada</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240354</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد  وليد  عبد الفتاح ليمونة</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Walid Abdelfatah laimona</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240259</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد السيد محمد هارون</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MOHAMED ELSAYED MOHAMED HAROUN</x:t>
   </x:si>
   <x:si>
     <x:t>1230315</x:t>
@@ -803,7 +803,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45909.9086724884</x:v>
+        <x:v>45909.4296262732</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -835,7 +835,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45909.4296262732</x:v>
+        <x:v>45907.6670037847</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -867,7 +867,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.7058415509</x:v>
+        <x:v>45908.4153628819</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -899,7 +899,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6670037847</x:v>
+        <x:v>45907.6651918634</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -931,7 +931,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45908.4153628819</x:v>
+        <x:v>45907.6659448264</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -963,7 +963,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6651918634</x:v>
+        <x:v>45907.665765081</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -995,7 +995,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6659448264</x:v>
+        <x:v>45907.6648693634</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1027,7 +1027,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.665765081</x:v>
+        <x:v>45907.6817985301</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1059,7 +1059,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6648693634</x:v>
+        <x:v>45908.4153371875</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1091,7 +1091,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6817985301</x:v>
+        <x:v>45907.6655027431</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1123,7 +1123,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45908.4153371875</x:v>
+        <x:v>45907.4148217593</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1155,7 +1155,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6655027431</x:v>
+        <x:v>45907.6662009259</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1187,7 +1187,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4148217593</x:v>
+        <x:v>45907.6968540509</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1219,7 +1219,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6662009259</x:v>
+        <x:v>45907.6810513542</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1251,7 +1251,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6968540509</x:v>
+        <x:v>45927.43550625</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1283,7 +1283,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6810513542</x:v>
+        <x:v>45927.4826675926</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>

--- a/downloaded_files/CMPS118_Tutorial-35663.xlsx
+++ b/downloaded_files/CMPS118_Tutorial-35663.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -31,6 +31,24 @@
   </x:si>
   <x:si>
     <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240280</x:t>
+  </x:si>
+  <x:si>
+    <x:t>إبراهيم محمد إبراهيم محمد فراج</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ibrahim Mohamed Ibrahim Mohamed Farrag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ابى احمد محمد عبدالموجود ابراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>obai ahmed mohmed abdelmawgood</x:t>
   </x:si>
   <x:si>
     <x:t>1240015</x:t>
@@ -380,7 +398,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -680,7 +698,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T27"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -771,7 +789,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45907.6649923264</x:v>
+        <x:v>45928.4940145023</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -803,7 +821,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45909.4296262732</x:v>
+        <x:v>45928.4909568287</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -835,7 +853,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.6670037847</x:v>
+        <x:v>45907.6649923264</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -867,7 +885,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45908.4153628819</x:v>
+        <x:v>45909.4296262732</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -899,7 +917,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6651918634</x:v>
+        <x:v>45907.6670037847</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -931,7 +949,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6659448264</x:v>
+        <x:v>45908.4153628819</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -963,7 +981,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.665765081</x:v>
+        <x:v>45907.6651918634</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -995,7 +1013,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6648693634</x:v>
+        <x:v>45907.6659448264</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1027,7 +1045,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6817985301</x:v>
+        <x:v>45907.665765081</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1059,7 +1077,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45908.4153371875</x:v>
+        <x:v>45907.6648693634</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1091,7 +1109,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6655027431</x:v>
+        <x:v>45907.6817985301</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1123,7 +1141,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4148217593</x:v>
+        <x:v>45908.4153371875</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1155,7 +1173,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6662009259</x:v>
+        <x:v>45907.6655027431</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1187,7 +1205,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6968540509</x:v>
+        <x:v>45907.4148217593</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1219,7 +1237,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6810513542</x:v>
+        <x:v>45907.6662009259</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1251,7 +1269,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45927.43550625</x:v>
+        <x:v>45907.6968540509</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1283,7 +1301,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45927.4826675926</x:v>
+        <x:v>45907.6810513542</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1315,7 +1333,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6663195255</x:v>
+        <x:v>45927.43550625</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1347,7 +1365,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45912.6483984143</x:v>
+        <x:v>45927.4826675926</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1379,7 +1397,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6658079861</x:v>
+        <x:v>45907.6663195255</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1411,7 +1429,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45912.3825394676</x:v>
+        <x:v>45912.6483984143</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1443,7 +1461,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6661949421</x:v>
+        <x:v>45907.6658079861</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1475,7 +1493,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6652935995</x:v>
+        <x:v>45912.3825394676</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1507,7 +1525,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6667049769</x:v>
+        <x:v>45907.6661949421</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1539,7 +1557,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6650952546</x:v>
+        <x:v>45907.6652935995</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1571,7 +1589,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6189731134</x:v>
+        <x:v>45907.6667049769</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1588,6 +1606,70 @@
       <x:c r="R27" s="2" t="s"/>
       <x:c r="S27" s="2" t="s"/>
       <x:c r="T27" s="2" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:20">
+      <x:c r="A28" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D28" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E28" s="3">
+        <x:v>45907.6650952546</x:v>
+      </x:c>
+      <x:c r="F28" s="2" t="s"/>
+      <x:c r="G28" s="2" t="s"/>
+      <x:c r="H28" s="2" t="s"/>
+      <x:c r="I28" s="2" t="s"/>
+      <x:c r="J28" s="2" t="s"/>
+      <x:c r="K28" s="2" t="s"/>
+      <x:c r="L28" s="2" t="s"/>
+      <x:c r="M28" s="2" t="s"/>
+      <x:c r="N28" s="2" t="s"/>
+      <x:c r="O28" s="2" t="s"/>
+      <x:c r="P28" s="2" t="s"/>
+      <x:c r="Q28" s="2" t="s"/>
+      <x:c r="R28" s="2" t="s"/>
+      <x:c r="S28" s="2" t="s"/>
+      <x:c r="T28" s="2" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20">
+      <x:c r="A29" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E29" s="3">
+        <x:v>45907.6189731134</x:v>
+      </x:c>
+      <x:c r="F29" s="2" t="s"/>
+      <x:c r="G29" s="2" t="s"/>
+      <x:c r="H29" s="2" t="s"/>
+      <x:c r="I29" s="2" t="s"/>
+      <x:c r="J29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="L29" s="2" t="s"/>
+      <x:c r="M29" s="2" t="s"/>
+      <x:c r="N29" s="2" t="s"/>
+      <x:c r="O29" s="2" t="s"/>
+      <x:c r="P29" s="2" t="s"/>
+      <x:c r="Q29" s="2" t="s"/>
+      <x:c r="R29" s="2" t="s"/>
+      <x:c r="S29" s="2" t="s"/>
+      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS118_Tutorial-35663.xlsx
+++ b/downloaded_files/CMPS118_Tutorial-35663.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -220,6 +220,15 @@
   </x:si>
   <x:si>
     <x:t>Mahmoud Ahmed Mohammed Kamal Eldin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240366</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمود حماده حليم صالح الحوت</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahmoud Hamada Halim Saleh Elhout</x:t>
   </x:si>
   <x:si>
     <x:t>1240154</x:t>
@@ -398,7 +407,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -698,7 +707,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1461,7 +1470,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6658079861</x:v>
+        <x:v>45929.5264654745</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1493,7 +1502,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45912.3825394676</x:v>
+        <x:v>45907.6658079861</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1525,7 +1534,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6661949421</x:v>
+        <x:v>45912.3825394676</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1557,7 +1566,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6652935995</x:v>
+        <x:v>45907.6661949421</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1589,7 +1598,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6667049769</x:v>
+        <x:v>45907.6652935995</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1621,7 +1630,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6650952546</x:v>
+        <x:v>45907.6667049769</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1653,7 +1662,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6189731134</x:v>
+        <x:v>45907.6650952546</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1670,6 +1679,38 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:20">
+      <x:c r="A30" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E30" s="3">
+        <x:v>45907.6189731134</x:v>
+      </x:c>
+      <x:c r="F30" s="2" t="s"/>
+      <x:c r="G30" s="2" t="s"/>
+      <x:c r="H30" s="2" t="s"/>
+      <x:c r="I30" s="2" t="s"/>
+      <x:c r="J30" s="2" t="s"/>
+      <x:c r="K30" s="2" t="s"/>
+      <x:c r="L30" s="2" t="s"/>
+      <x:c r="M30" s="2" t="s"/>
+      <x:c r="N30" s="2" t="s"/>
+      <x:c r="O30" s="2" t="s"/>
+      <x:c r="P30" s="2" t="s"/>
+      <x:c r="Q30" s="2" t="s"/>
+      <x:c r="R30" s="2" t="s"/>
+      <x:c r="S30" s="2" t="s"/>
+      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS118_Tutorial-35663.xlsx
+++ b/downloaded_files/CMPS118_Tutorial-35663.xlsx
@@ -126,7 +126,7 @@
     <x:t>1240194</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">زياد عمر احمد عمر </x:t>
+    <x:t>زياد عمر احمد عمر محمود السيد</x:t>
   </x:si>
   <x:si>
     <x:t>ZEYAD OMAR AHMED OMAR</x:t>
